--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2442.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2442.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.03505114837811</v>
+        <v>2.07838249206543</v>
       </c>
       <c r="B1">
-        <v>2.167747386710274</v>
+        <v>2.29838228225708</v>
       </c>
       <c r="C1">
-        <v>8.19113379970605</v>
+        <v>2.394163608551025</v>
       </c>
       <c r="D1">
-        <v>2.561736082301478</v>
+        <v>3.057729482650757</v>
       </c>
       <c r="E1">
-        <v>0.9832581941799513</v>
+        <v>2.803457260131836</v>
       </c>
     </row>
   </sheetData>
